--- a/medicine/Mort/Décès_en_1942/Décès_en_1942.xlsx
+++ b/medicine/Mort/Décès_en_1942/Décès_en_1942.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1942</t>
+          <t>Décès_en_1942</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1942</t>
+          <t>Décès_en_1942</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Jean Adler, peintre et sculpteur français (° 30 septembre 1899).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jean Adler, peintre et sculpteur français (° 30 septembre 1899).
 Charles Louis Eugène Assezat de Bouteyre, peintre français (° juin 1864).
 Paul Barian, peintre français (° 1875).
 Jules-Gustave Besson, peintre et enseignant français (° 1er août 1868).
@@ -553,9 +570,43 @@
 Après 1942
 Lluïsa Casagemas i Coll, compositrice catalane (° 13 décembre 1863).
 1942 ou 1945
-Boris Zvorykine, peintre, illustrateur et traducteur russe puis soviétique (° 1er octobre 1872).
-Janvier
-2 janvier :
+Boris Zvorykine, peintre, illustrateur et traducteur russe puis soviétique (° 1er octobre 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier :
 Lodovico Cavaleri, peintre italien (° 15 novembre 1867).
 Ernest Rouart, peintre, aquarelliste, pastelliste, graveur et collectionneur français (° 1874).
 Henriette Gottlieb, soprano allemande (° 1er juin 1884).
@@ -576,9 +627,43 @@
 Marthe Bonnard, peintre française (° 22 février 1869).
 30 janvier :
 Karl Goepfart, musicien, compositeur et chef d'orchestre allemand (° 8 mars 1859).
-Frederick W. A. G. Haultain, premier ministre des Territoires du Nord-Ouest.
-Février
-2 février : Leonetto Cappiello, peintre, illustrateur, caricaturiste et affichiste italien naturalisé français (° 6 avril 1875).
+Frederick W. A. G. Haultain, premier ministre des Territoires du Nord-Ouest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Leonetto Cappiello, peintre, illustrateur, caricaturiste et affichiste italien naturalisé français (° 6 avril 1875).
 4 février :
 Louis-Adolphe Paquet, prêtre et écrivain canadien (° 4 août 1859).
 Otto von Wätjen, peintre allemand (° 17 juillet 1881).
@@ -598,9 +683,43 @@
 24 février : Fernand Piet, peintre français (° 26 août 1869).
 25 février :
 Leo Ascher, compositeur autrichien (° 17 août 1880).
-Paul Denarié, peintre français (° 1er janvier 1859).
-Mars
-5 mars : Edgar Nelson Rhodes, premier ministre de la Nouvelle-Écosse (° 5 janvier 1877).
+Paul Denarié, peintre français (° 1er janvier 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Edgar Nelson Rhodes, premier ministre de la Nouvelle-Écosse (° 5 janvier 1877).
 7 mars : Jose Raul Capablanca, joueur d'échecs cubain (° 19 novembre 1888).
 8 mars : Mary MacSwiney, députée indépendantiste et féministe irlandaise (° 27 mars 1872).
 11 mars : Raoul Dandurand, politicien canadien (° 1861).
@@ -626,9 +745,43 @@
 Julio González, sculpteur et peintre espagnol (° 21 septembre 1876).
 Georges-Jean Lemare, peintre orientaliste français (° 29 avril 1866).
 28 mars : Alexeï Bellegarde, haut fonctionnaire russe (° 24 novembre 1861).
-30 mars : Marcel Rieder, peintre français (° 19 mars 1862).
-Avril
-3 avril :
+30 mars : Marcel Rieder, peintre français (° 19 mars 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril :
 Paul Gilson, compositeur et pédagogue belge (° 15 juin 1865).
 Georges Truffaut, homme politique belge (° 22 décembre 1901).
 5 avril : Pavel Chillingovski, graveur, peintre et professeur d'art russe puis soviétique (° 12 mars 1881).
@@ -641,9 +794,43 @@
 Marcel Weinum, adolescent résistant, fondateur du réseau de Résistance « La Main Noire » (°5 février 1924).
 26 avril : Käthe Loewenthal, peintre allemande (° 27 mars 1878).
 28 avril : Slavin Cindrić, footballeur yougoslave puis croate (° 1901).
-29 avril : Emil von Sauer, pianiste et compositeur allemand (° 8 octobre 1862).
-Mai
-2 mai :
+29 avril : Emil von Sauer, pianiste et compositeur allemand (° 8 octobre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai :
 Maurice Cabart-Danneville, homme politique français (° 9 juin 1866).
 André Engel, peintre français (° 4 mai 1880).
 3 mai : Henri Labit, officier, résistant, compagnon de la Libération (° 30 septembre 1920).
@@ -663,9 +850,43 @@
 Libero Bovio, parolier et poète de langue napolitaine (° 9 juin 1883).
 Georges-Auguste Lavergne, peintre français (° 1er janvier 1863).
 Émile Frédéric Jean Baptiste Ragot, peintre et sculpteur français (° 7 décembre 1872).
-29 mai : John Barrymore, acteur américain (° 15 février 1882).
-Juin
-1er juin : Ernest Pingoud, compositeur finlandais d'origine alsacienne (° 14 octobre 1887).
+29 mai : John Barrymore, acteur américain (° 15 février 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Ernest Pingoud, compositeur finlandais d'origine alsacienne (° 14 octobre 1887).
 4 juin :
 Reinhard Heydrich, SS-Obergruppenführer (° 7 mars 1904).
 Mordechai Gebirtig, compositeur et poète polonais (° 4 mai 1877).
@@ -682,9 +903,43 @@
 17 juin :
 Charles Fitzpatrick, juge à la cour suprême du Canada (° 19 décembre 1853).
 Youssef Khan Nazare-Aga, compositeur français (° 24 août 1870).
-30 juin : Léon Daudet, écrivain et homme politique français (° 16 novembre 1867).
-Juillet
-2 juillet : William Henry Reed, violoniste anglais, professeur, compositeur, chef d'orchestre et biographe de Sir Edward Elgar (° 29 juillet 1876).
+30 juin : Léon Daudet, écrivain et homme politique français (° 16 novembre 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : William Henry Reed, violoniste anglais, professeur, compositeur, chef d'orchestre et biographe de Sir Edward Elgar (° 29 juillet 1876).
 9 juillet : Camille, Georges Ruff, résistant français (°27 juillet 1898).
 11 juillet : Auguste Germain, poète français (° 16 août 1878).
 17 juillet : Joachim Weingart, peintre polonais (° 1895).
@@ -694,9 +949,43 @@
 Thomas Latimore, homme politique américain (° 28 juin 1890).
 23 juillet : Andy Ducat, footballeur britannique (° 16 février 1886).
 29 juillet : Wojciech Kossak, peintre polonais (° 31 décembre 1856).
-31 juillet : Jožka Jabůrková, journaliste et écrivaine d'origine tchécoslovaque (° 16 avril 1896).
-Août
-1er août : Edith Pretty, propriétaire terrienne anglaise (° 1er août 1883).
+31 juillet : Jožka Jabůrková, journaliste et écrivaine d'origine tchécoslovaque (° 16 avril 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Edith Pretty, propriétaire terrienne anglaise (° 1er août 1883).
 4 août : Alberto Franchetti, compositeur italien, appartenant à l'école du vérisme et à la Giovane Scuola (° 8 septembre 1860)
 5 août :
 Sidney Bracey, acteur australo-américain (° 18 décembre 1877).
@@ -719,9 +1008,43 @@
 21 août : Antoine Calbet, peintre, aquarelliste, dessinateur, graveur et illustrateur français (° 16 août 1860).
 23 août : Takeuchi Seihō, peintre japonais du genre nihonga (° 20 décembre 1864).
 28 août : Clara Arnheim, peintre allemande (° 24 avril 1865).
-30 août : Sava Šumanović, peintre serbe puis yougoslave (° 22 janvier 1896).
-Septembre
-1er septembre : Marie-Madeleine Dauphin, illustratrice française (° 6 juin 1878).
+30 août : Sava Šumanović, peintre serbe puis yougoslave (° 22 janvier 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Marie-Madeleine Dauphin, illustratrice française (° 6 juin 1878).
 2 septembre : Bento António Gonçalves (en), dirigeant communiste portugais, au bagne de Tarrafal.
 4 septembre : Ettie Steinberg, longtemps considérée comme la seule victime irlandaise de la Shoah (° 11 janvier 1914).
 5 septembre : François de Labouchère, aviateur français de la Seconde Guerre mondiale, compagnon de la Libération (° 18 septembre 1917).
@@ -732,9 +1055,43 @@
 25 septembre : Wilhelm Claudius, peintre, illustrateur et dessinateur allemand (° 13 avril 1854).
 30 septembre :
 Jacques-Émile Blanche, peintre, graveur et écrivain français (° 31 janvier 1861).
-Hermann Kurtz, collectionneur et prestidigitateur roumain (° 17 mars 1873).
-Octobre
-1er octobre :
+Hermann Kurtz, collectionneur et prestidigitateur roumain (° 17 mars 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre :
 Hinko Smrekar, dessinateur, peintre, illustrateur et caricaturiste serbe puis yougoslave (° 13 juillet 1883).
 Heinz Wengler, coureur cycliste allemand (° 27 septembre 1912).
 5 octobre : Giuseppe Cassioli, peintre et sculpteur italien (° 22 octobre 1865).
@@ -745,18 +1102,86 @@
 23 octobre : Sidiki Boubakari, résistant français, compagnon de la libération (° vers 1911-1912).
 25 octobre : Ubaldo Oppi, peintre italien (° 29 juillet 1889).
 26 octobre : William Finnemann, évêque philippin, résistant aux Japonais, « serviteur de Dieu » (° 18 décembre 1882).
-28 octobre : Adolphe Marty, organiste, improvisateur, compositeur et pédagogue français (° 29 septembre 1865).
-Novembre
-1er novembre : Hugo Distler, organiste et compositeur allemand (° 24 juin 1908).
+28 octobre : Adolphe Marty, organiste, improvisateur, compositeur et pédagogue français (° 29 septembre 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Hugo Distler, organiste et compositeur allemand (° 24 juin 1908).
 4 novembre : Clementine Krämer, écrivaine allemande (° 7 octobre 1873).
 19 novembre :
 Else Berg, peintre germano-néerlandaise (° 19 février 1877).
 Édouard Combe, compositeur et musicien suisse (° 23 septembre 1866).
 Bruno Schulz, écrivain et graphiste polonais (° 12 juillet 1892).
 Mommie Schwarz, peintre et graphiste juif néerlandais (° 28 juillet 1876).
-27 novembre : Jean Launois, peintre et illustrateur français (° 22 novembre 1898).
-Décembre
-1er décembre : Gaston Rivierre, coureur cycliste français (° 3 juin 1862).
+27 novembre : Jean Launois, peintre et illustrateur français (° 22 novembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Gaston Rivierre, coureur cycliste français (° 3 juin 1862).
 2 décembre : Léon Carré, peintre et illustrateur français (° 23 juin 1878).
 3 décembre : Blanche Selva, pianiste, pédagogue et compositrice française (° 29 janvier 1884).
 6 décembre : Marie-Emmanuel-Augustin Savard, compositeur, chef d'orchestre et pédagogue français (° 15 mai 1861).
@@ -773,9 +1198,43 @@
 23 décembre : René Morère, peintre français (° 16 mai 1907).
 24 décembre : François Darlan, amiral et homme politique français (° 7 août 1881).
 26 décembre : Frank Dawson Adams, géologue canadien (° 17 septembre 1859).
-28 décembre : Camille Wollès, peintre belge (° 1er juillet 1864).
-Date précise inconnue
-Maruyama Banka, peintre de paysages et aquarelliste japonais (° 1867).
+28 décembre : Camille Wollès, peintre belge (° 1er juillet 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1942</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1942</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Maruyama Banka, peintre de paysages et aquarelliste japonais (° 1867).
 George Alexander Sullivan, acteur britannique (° 1890).</t>
         </is>
       </c>
